--- a/Research Corpus/Data by Source/Source_20|The Blockchain Trilemma- An Evaluation Framework.xlsx
+++ b/Research Corpus/Data by Source/Source_20|The Blockchain Trilemma- An Evaluation Framework.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yawu/Desktop/Repos/FT324_SLR/Research Corpus/Data by Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD3EC22-57AE-304C-A6BE-FBF269E6095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D4672-2859-9A4D-BB18-AC48B93A3D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,13 +504,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
@@ -575,6 +575,12 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7">
+        <v>1763</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
